--- a/hackathon/src/test/resources/outputexcel/Sign in1.xlsx
+++ b/hackathon/src/test/resources/outputexcel/Sign in1.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sign in Error msg1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sign in Error msg2" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
